--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_atmos.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>MRI-ESM2-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>
